--- a/google2016.xlsx
+++ b/google2016.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stanislavermohin/Desktop/NSU/Экономика/Риск-менеджмент/New/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8B6B45-259A-AB47-A51F-80B8B23BF5FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51EBDA7-4BC5-FD42-9A1B-E137B1E7F648}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1420" windowWidth="27440" windowHeight="15100" xr2:uid="{D72E1DF1-3250-B743-B0E8-FE874C63B381}"/>
+    <workbookView xWindow="1080" yWindow="1360" windowWidth="27440" windowHeight="15100" activeTab="1" xr2:uid="{D72E1DF1-3250-B743-B0E8-FE874C63B381}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1293,7 +1293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97393981-96DD-D54C-B311-E80AF8010E58}">
   <dimension ref="A2:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E42"/>
     </sheetView>
   </sheetViews>
@@ -1771,6 +1771,9 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="C10:C14"/>
     <mergeCell ref="B34:B39"/>
     <mergeCell ref="A23:A42"/>
     <mergeCell ref="B25:B26"/>
@@ -1781,9 +1784,6 @@
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="C10:C14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1793,8 +1793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431ACFE8-5C8D-574D-94A5-CE3B3997ED65}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1831,7 +1831,7 @@
     <row r="2" spans="1:6" ht="16">
       <c r="A2" s="3">
         <f>1.2*B2+1.4*C2+3.3*D2+0.6*E2+F2</f>
-        <v>79.508001888779816</v>
+        <v>79.481404873854444</v>
       </c>
       <c r="B2" s="4">
         <f>C9/C4</f>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="D2" s="4">
         <f>C5/C4</f>
-        <v>0.14417910447761195</v>
+        <v>0.13611940298507463</v>
       </c>
       <c r="E2" s="4">
         <f>C6/C7</f>
@@ -1883,11 +1883,11 @@
         <v>10</v>
       </c>
       <c r="C5" s="7">
-        <f>Data!C27</f>
-        <v>24150</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
+        <f>Data!C19</f>
+        <v>22800</v>
+      </c>
+      <c r="D5" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16">
@@ -2283,7 +2283,7 @@
   <dimension ref="A1:C196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C196"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
